--- a/Steps.xlsx
+++ b/Steps.xlsx
@@ -16,14 +16,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
   <si>
     <t>Tùng</t>
   </si>
   <si>
-    <t>Giới thiệu outline của trang web</t>
-  </si>
-  <si>
     <t>Gửi yêu cầu</t>
   </si>
   <si>
@@ -45,9 +42,6 @@
     <t>Xác nhận xe đến trạm</t>
   </si>
   <si>
-    <t>Theo dõi hàng đang vận chuyển</t>
-  </si>
-  <si>
     <t>Xem hàng trễ chuyến</t>
   </si>
   <si>
@@ -76,9 +70,6 @@
   </si>
   <si>
     <t>Nội dung trình bày</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Feedback </t>
   </si>
 </sst>
 </file>
@@ -429,10 +420,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:E15"/>
+  <dimension ref="B2:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -447,16 +438,16 @@
   <sheetData>
     <row r="2" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.25">
@@ -474,63 +465,63 @@
       </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B4" s="1">
+        <v>2</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D4" s="1">
+        <v>1</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D5" s="1">
         <v>2</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B5" s="1">
-        <v>2</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D5" s="1">
-        <v>1</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B6" s="1">
+        <v>3</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="D6" s="1">
+        <v>1</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D7" s="1">
         <v>2</v>
       </c>
-      <c r="E6" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B7" s="1">
-        <v>3</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" s="1">
-        <v>1</v>
-      </c>
       <c r="E7" s="2" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D8" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D9" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.25">
@@ -538,7 +529,7 @@
         <v>4</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.25">
@@ -546,13 +537,13 @@
         <v>4</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D11" s="1">
         <v>1</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.25">
@@ -560,7 +551,7 @@
         <v>2</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.25">
@@ -568,29 +559,21 @@
         <v>3</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B14" s="1">
+        <v>5</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D14" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B15" s="1">
-        <v>5</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D15" s="1">
-        <v>1</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/Steps.xlsx
+++ b/Steps.xlsx
@@ -422,9 +422,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:E14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
@@ -526,7 +524,7 @@
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D10" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>8</v>
